--- a/Back_end/data.xlsx
+++ b/Back_end/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam II\Documents\GitHub\SWE475_Team2\Back_end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107D0EE-0602-4E47-BF97-2957AF805A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1247FAAC-5333-429D-B911-6226E5CB5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="25">
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t>ID #</t>
+  </si>
+  <si>
+    <t>Issued Authority</t>
+  </si>
+  <si>
+    <t>Issued State</t>
+  </si>
+  <si>
+    <t>Issued Date</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Address Type</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Block #</t>
+  </si>
+  <si>
+    <t>Ward #</t>
+  </si>
+  <si>
+    <t>Father Name</t>
+  </si>
+  <si>
+    <t>Mother Name</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>Spouse Name</t>
+  </si>
+  <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
   <si>
     <t>Full Name</t>
   </si>
@@ -32,66 +92,6 @@
   </si>
   <si>
     <t>Mobile #</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Occupation</t>
-  </si>
-  <si>
-    <t>ID Type</t>
-  </si>
-  <si>
-    <t>ID #</t>
-  </si>
-  <si>
-    <t>Issued Authority</t>
-  </si>
-  <si>
-    <t>Issued State</t>
-  </si>
-  <si>
-    <t>Issued Date</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Address Type</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Block #</t>
-  </si>
-  <si>
-    <t>Ward #</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Mother Name</t>
-  </si>
-  <si>
-    <t>Grandfather</t>
-  </si>
-  <si>
-    <t>Spouse Name</t>
-  </si>
-  <si>
-    <t>FIL</t>
-  </si>
-  <si>
-    <t>MIL</t>
   </si>
   <si>
     <t/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +554,18 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
@@ -600,22 +612,22 @@
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
@@ -662,22 +674,22 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
@@ -724,22 +736,22 @@
         <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
@@ -786,22 +798,22 @@
         <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
@@ -850,23 +862,135 @@
       <c r="T6" t="s">
         <v>24</v>
       </c>
-      <c r="U6" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" t="s">
+    </row>
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:X1 E6:X6 E5:X5 E4:X4 E3:X3 E2:X2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:X7 A8:T8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>